--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF6B53-44E2-42F7-B57F-59BDAAF80750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266767D-3BB3-4F3B-AF53-5E71223E91E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7363" yWindow="2606" windowWidth="23246" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4286" yWindow="2374" windowWidth="22491" windowHeight="13252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +365,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +570,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -725,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,13 +745,22 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,7 +1122,7 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="D21" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1196,14 +1217,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>4.1574999999999998</v>
       </c>
       <c r="D2" s="1">
@@ -1267,501 +1288,501 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.2378999999999998</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4.6957000000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>0.94499999999999995</v>
+        <v>0.93240000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>3.1141000000000001</v>
+        <v>4.0561999999999996</v>
       </c>
       <c r="G3" s="1">
-        <v>0.75149999999999995</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="H3" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I3" s="1">
-        <v>2.7199999999999998E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="J3" s="1">
-        <v>4.2698999999999998</v>
+        <v>4.7426000000000004</v>
       </c>
       <c r="K3" s="1">
-        <v>4.2032999999999996</v>
+        <v>4.6376999999999997</v>
       </c>
       <c r="L3" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M3" s="1">
-        <v>0.94589999999999996</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>0.94420000000000004</v>
+        <v>0.93110000000000004</v>
       </c>
       <c r="O3" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P3" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.3299999999999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="R3" s="1">
-        <v>0.1133</v>
+        <v>0.15509999999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>3.2692000000000001</v>
+        <v>4.2365000000000004</v>
       </c>
       <c r="T3" s="1">
-        <v>3.0015999999999998</v>
+        <v>3.8578999999999999</v>
       </c>
       <c r="U3" s="1">
-        <v>3.1E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="V3" s="1">
-        <v>0.79459999999999997</v>
+        <v>0.6623</v>
       </c>
       <c r="W3" s="1">
-        <v>0.72319999999999995</v>
+        <v>0.65380000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.3030999999999997</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.5631000000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>0.94330000000000003</v>
+        <v>0.93620000000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>1.47E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>2.1255000000000002</v>
+        <v>2.9523000000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.83630000000000004</v>
+        <v>0.64790000000000003</v>
       </c>
       <c r="H4" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I4" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>4.3282999999999996</v>
+        <v>4.6561000000000003</v>
       </c>
       <c r="K4" s="1">
-        <v>4.2693000000000003</v>
+        <v>4.4904999999999999</v>
       </c>
       <c r="L4" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="M4" s="1">
-        <v>0.94420000000000004</v>
+        <v>0.93820000000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>0.94259999999999999</v>
+        <v>0.93359999999999999</v>
       </c>
       <c r="O4" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3.0600999999999998</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2.7768000000000002</v>
+      </c>
+      <c r="U4" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.63990000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4.4654999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.5217000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.5763999999999996</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.3792999999999997</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="O5" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P4" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2.1507999999999998</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.84870000000000001</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0.81920000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.2873000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.94369999999999998</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.43E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.6294999999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.7137</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4.3628999999999998</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4.2447999999999997</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.4E-3</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="O5" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
       <c r="P5" s="1">
-        <v>1.49E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.38E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>3.6200000000000003E-2</v>
+        <v>0.1905</v>
       </c>
       <c r="S5" s="1">
-        <v>1.6566000000000001</v>
+        <v>2.7376999999999998</v>
       </c>
       <c r="T5" s="1">
-        <v>1.5784</v>
+        <v>2.2743000000000002</v>
       </c>
       <c r="U5" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="V5" s="1">
-        <v>0.73119999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="W5" s="1">
-        <v>0.68320000000000003</v>
+        <v>0.62909999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
-        <v>4.3639000000000001</v>
+        <v>5.0486000000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>0.94169999999999998</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="E6" s="1">
-        <v>1.4E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>3.8203999999999998</v>
+        <v>6.3566000000000003</v>
       </c>
       <c r="G6" s="1">
-        <v>0.80679999999999996</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="H6" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I6" s="1">
-        <v>4.0899999999999999E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>4.4145000000000003</v>
+        <v>5.1120999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>4.3143000000000002</v>
+        <v>4.9943999999999997</v>
       </c>
       <c r="L6" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="M6" s="1">
-        <v>0.94299999999999995</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>0.94030000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="O6" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P6" s="1">
-        <v>1.44E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.37E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="R6" s="1">
-        <v>6.5299999999999997E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="S6" s="1">
-        <v>3.9104000000000001</v>
+        <v>6.3962000000000003</v>
       </c>
       <c r="T6" s="1">
-        <v>3.7578</v>
+        <v>6.3272000000000004</v>
       </c>
       <c r="U6" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>4.07E-2</v>
       </c>
       <c r="V6" s="1">
-        <v>0.81640000000000001</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="W6" s="1">
-        <v>0.80020000000000002</v>
+        <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.3861999999999997</v>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4.2378999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>0.94110000000000005</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E7" s="1">
-        <v>1.5100000000000001E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>1.7679</v>
+        <v>3.1141000000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0.75749999999999995</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="H7" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I7" s="1">
-        <v>1.4200000000000001E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="J7" s="1">
-        <v>4.4058999999999999</v>
+        <v>4.2698999999999998</v>
       </c>
       <c r="K7" s="1">
-        <v>4.3734000000000002</v>
+        <v>4.2032999999999996</v>
       </c>
       <c r="L7" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M7" s="1">
-        <v>0.94140000000000001</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>0.9405</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="O7" s="1">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P7" s="1">
-        <v>1.52E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="R7" s="1">
-        <v>0.1258</v>
+        <v>0.1133</v>
       </c>
       <c r="S7" s="1">
-        <v>1.8991</v>
+        <v>3.2692000000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>1.5983000000000001</v>
+        <v>3.0015999999999998</v>
       </c>
       <c r="U7" s="1">
-        <v>2.53E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="V7" s="1">
-        <v>0.78349999999999997</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="W7" s="1">
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.4149000000000003</v>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4.3418999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>0.94030000000000002</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>1.43E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>3.1238000000000001</v>
+        <v>3.6164000000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>0.76939999999999997</v>
+        <v>0.75470000000000004</v>
       </c>
       <c r="H8" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I8" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>4.4295</v>
+        <v>4.4194000000000004</v>
       </c>
       <c r="K8" s="1">
-        <v>4.4010999999999996</v>
+        <v>4.2984</v>
       </c>
       <c r="L8" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="M8" s="1">
-        <v>0.94069999999999998</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>0.93989999999999996</v>
+        <v>0.94020000000000004</v>
       </c>
       <c r="O8" s="1">
         <v>1E-4</v>
       </c>
       <c r="P8" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.4200000000000001E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>5.8599999999999999E-2</v>
+        <v>0.1716</v>
       </c>
       <c r="S8" s="1">
-        <v>3.1871</v>
+        <v>3.8016999999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>3.0457999999999998</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="U8" s="1">
-        <v>7.1000000000000004E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="V8" s="1">
-        <v>0.77939999999999998</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="W8" s="1">
-        <v>0.76329999999999998</v>
+        <v>0.74690000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
-        <v>4.4207999999999998</v>
+        <v>4.4253</v>
       </c>
       <c r="D9" s="1">
-        <v>0.94020000000000004</v>
+        <v>0.94</v>
       </c>
       <c r="E9" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>2.6288999999999998</v>
+        <v>4.8531000000000004</v>
       </c>
       <c r="G9" s="1">
-        <v>0.87549999999999994</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="H9" s="2">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I9" s="1">
-        <v>1.9099999999999999E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="J9" s="1">
-        <v>4.4448999999999996</v>
+        <v>4.4893999999999998</v>
       </c>
       <c r="K9" s="1">
-        <v>4.3982000000000001</v>
+        <v>4.3582000000000001</v>
       </c>
       <c r="L9" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M9" s="1">
-        <v>0.94079999999999997</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>0.9395</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="O9" s="1">
         <v>1E-4</v>
       </c>
       <c r="P9" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.5699999999999999E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="R9" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>2.6869999999999998</v>
+        <v>5.0301999999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>2.5447000000000002</v>
+        <v>4.7175000000000002</v>
       </c>
       <c r="U9" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="V9" s="1">
-        <v>0.89359999999999995</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="W9" s="1">
-        <v>0.84030000000000005</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
@@ -1769,73 +1790,73 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
-        <v>4.3418999999999999</v>
+        <v>4.3639000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>0.94230000000000003</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>1.38E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>3.6164000000000001</v>
+        <v>3.8203999999999998</v>
       </c>
       <c r="G10" s="1">
-        <v>0.75470000000000004</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="H10" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I10" s="1">
-        <v>5.5E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>4.4194000000000004</v>
+        <v>4.4145000000000003</v>
       </c>
       <c r="K10" s="1">
-        <v>4.2984</v>
+        <v>4.3143000000000002</v>
       </c>
       <c r="L10" s="1">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="M10" s="1">
-        <v>0.94340000000000002</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>0.94020000000000004</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="O10" s="1">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P10" s="1">
-        <v>1.4E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="Q10" s="1">
         <v>1.37E-2</v>
       </c>
       <c r="R10" s="1">
-        <v>0.1716</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="S10" s="1">
-        <v>3.8016999999999999</v>
+        <v>3.9104000000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>3.3879999999999999</v>
+        <v>3.7578</v>
       </c>
       <c r="U10" s="1">
-        <v>5.7000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="V10" s="1">
-        <v>0.76039999999999996</v>
+        <v>0.81640000000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>0.74690000000000001</v>
+        <v>0.80020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1906,575 +1927,575 @@
         <v>0.81940000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4.4889999999999999</v>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.2873000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>0.93830000000000002</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>2.0343</v>
+        <v>1.6294999999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>0.77910000000000001</v>
+        <v>0.7137</v>
       </c>
       <c r="H12" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I12" s="1">
-        <v>6.93E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>4.5795000000000003</v>
+        <v>4.3628999999999998</v>
       </c>
       <c r="K12" s="1">
-        <v>4.4112999999999998</v>
+        <v>4.2447999999999997</v>
       </c>
       <c r="L12" s="1">
-        <v>1.9E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M12" s="1">
-        <v>0.94040000000000001</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>0.93579999999999997</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="O12" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P12" s="1">
-        <v>1.66E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.54E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>5.8599999999999999E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="S12" s="1">
-        <v>2.1145999999999998</v>
+        <v>1.6566000000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>1.9765999999999999</v>
+        <v>1.5784</v>
       </c>
       <c r="U12" s="1">
-        <v>1.52E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="V12" s="1">
-        <v>0.79500000000000004</v>
+        <v>0.73119999999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>0.75860000000000005</v>
+        <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.4915000000000003</v>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4.4149000000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>0.93820000000000003</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>1.44E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>3.8639000000000001</v>
+        <v>3.1238000000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>0.84919999999999995</v>
+        <v>0.76939999999999997</v>
       </c>
       <c r="H13" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I13" s="1">
-        <v>5.79E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J13" s="1">
-        <v>4.5332999999999997</v>
+        <v>4.4295</v>
       </c>
       <c r="K13" s="1">
-        <v>4.4096000000000002</v>
+        <v>4.4010999999999996</v>
       </c>
       <c r="L13" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M13" s="1">
-        <v>0.94040000000000001</v>
+        <v>0.94069999999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>0.93710000000000004</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="O13" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P13" s="1">
-        <v>1.46E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Q13" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="R13" s="1">
-        <v>0.1787</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="S13" s="1">
-        <v>4.0347</v>
+        <v>3.1871</v>
       </c>
       <c r="T13" s="1">
-        <v>3.6172</v>
+        <v>3.0457999999999998</v>
       </c>
       <c r="U13" s="1">
-        <v>3.7100000000000001E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="V13" s="1">
-        <v>0.89439999999999997</v>
+        <v>0.77939999999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>0.8034</v>
+        <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
-        <v>4.5068000000000001</v>
+        <v>4.4915000000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>0.93779999999999997</v>
+        <v>0.93820000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>1.47E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>3.3372000000000002</v>
+        <v>3.8639000000000001</v>
       </c>
       <c r="G14" s="1">
-        <v>0.84760000000000002</v>
+        <v>0.84919999999999995</v>
       </c>
       <c r="H14" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I14" s="1">
-        <v>1.9E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="J14" s="1">
         <v>4.5332999999999997</v>
       </c>
       <c r="K14" s="1">
-        <v>4.4896000000000003</v>
+        <v>4.4096000000000002</v>
       </c>
       <c r="L14" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M14" s="1">
-        <v>0.93830000000000002</v>
+        <v>0.94040000000000001</v>
       </c>
       <c r="N14" s="1">
         <v>0.93710000000000004</v>
       </c>
       <c r="O14" s="1">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P14" s="1">
-        <v>1.49E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.46E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="R14" s="1">
-        <v>8.8599999999999998E-2</v>
+        <v>0.1787</v>
       </c>
       <c r="S14" s="1">
-        <v>3.4611000000000001</v>
+        <v>4.0347</v>
       </c>
       <c r="T14" s="1">
-        <v>3.2591999999999999</v>
+        <v>3.6172</v>
       </c>
       <c r="U14" s="1">
-        <v>2.3800000000000002E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="V14" s="1">
-        <v>0.87509999999999999</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.8034</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.4253</v>
+        <v>64</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.4412000000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>0.94</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>1.38E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>4.8531000000000004</v>
+        <v>1.5927</v>
       </c>
       <c r="G15" s="1">
-        <v>0.80110000000000003</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="H15" s="2">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I15" s="1">
-        <v>5.3600000000000002E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="J15" s="1">
-        <v>4.4893999999999998</v>
+        <v>4.4516999999999998</v>
       </c>
       <c r="K15" s="1">
-        <v>4.3582000000000001</v>
+        <v>4.4314</v>
       </c>
       <c r="L15" s="1">
-        <v>1.4E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M15" s="1">
-        <v>0.94179999999999997</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>0.93830000000000002</v>
+        <v>0.93930000000000002</v>
       </c>
       <c r="O15" s="1">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P15" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.37E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>0.13100000000000001</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="S15" s="1">
-        <v>5.0301999999999998</v>
+        <v>1.6371</v>
       </c>
       <c r="T15" s="1">
-        <v>4.7175000000000002</v>
+        <v>1.5087999999999999</v>
       </c>
       <c r="U15" s="1">
-        <v>1.3100000000000001E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="V15" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.62890000000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>0.78500000000000003</v>
+        <v>0.60109999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>4.6241000000000003</v>
+        <v>4.3030999999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>0.9345</v>
+        <v>0.94330000000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>1.6E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>3.6855000000000002</v>
+        <v>2.1255000000000002</v>
       </c>
       <c r="G16" s="1">
-        <v>0.80800000000000005</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="H16" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I16" s="1">
-        <v>3.39E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>4.6589999999999998</v>
+        <v>4.3282999999999996</v>
       </c>
       <c r="K16" s="1">
-        <v>4.5781999999999998</v>
+        <v>4.2693000000000003</v>
       </c>
       <c r="L16" s="1">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M16" s="1">
-        <v>0.93579999999999997</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>0.9335</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P16" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.54E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>0.1133</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="S16" s="1">
-        <v>3.8456000000000001</v>
+        <v>2.1507999999999998</v>
       </c>
       <c r="T16" s="1">
-        <v>3.5979000000000001</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="U16" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="V16" s="1">
-        <v>0.83589999999999998</v>
+        <v>0.84870000000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>0.78520000000000001</v>
+        <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
-        <v>4.6900000000000004</v>
+        <v>4.5068000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>0.93259999999999998</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>4.9722999999999997</v>
+        <v>3.3372000000000002</v>
       </c>
       <c r="G17" s="1">
-        <v>0.9083</v>
+        <v>0.84760000000000002</v>
       </c>
       <c r="H17" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I17" s="1">
-        <v>5.7200000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>4.7336</v>
+        <v>4.5332999999999997</v>
       </c>
       <c r="K17" s="1">
-        <v>4.6092000000000004</v>
+        <v>4.4896000000000003</v>
       </c>
       <c r="L17" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M17" s="1">
-        <v>0.93489999999999995</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>0.93140000000000001</v>
+        <v>0.93710000000000004</v>
       </c>
       <c r="O17" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P17" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>0.16470000000000001</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="S17" s="1">
-        <v>5.0909000000000004</v>
+        <v>3.4611000000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>4.7394999999999996</v>
+        <v>3.2591999999999999</v>
       </c>
       <c r="U17" s="1">
-        <v>2.0199999999999999E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="V17" s="1">
-        <v>0.93679999999999997</v>
+        <v>0.87509999999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>0.89239999999999997</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>4.7054999999999998</v>
+        <v>4.8475999999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>0.93220000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E18" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>3.9521000000000002</v>
+        <v>7.3387000000000002</v>
       </c>
       <c r="G18" s="1">
-        <v>0.88460000000000005</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="H18" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I18" s="1">
-        <v>7.8299999999999995E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="J18" s="1">
-        <v>4.8079999999999998</v>
+        <v>4.9142999999999999</v>
       </c>
       <c r="K18" s="1">
-        <v>4.6177999999999999</v>
+        <v>4.7426000000000004</v>
       </c>
       <c r="L18" s="1">
-        <v>2.3E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="M18" s="1">
-        <v>0.93469999999999998</v>
+        <v>0.93110000000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>0.92920000000000003</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="O18" s="1">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P18" s="1">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="R18" s="1">
-        <v>8.1600000000000006E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="S18" s="1">
-        <v>4.0114999999999998</v>
+        <v>7.3533999999999997</v>
       </c>
       <c r="T18" s="1">
-        <v>3.8365999999999998</v>
+        <v>7.3140999999999998</v>
       </c>
       <c r="U18" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="V18" s="1">
-        <v>0.90990000000000004</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="W18" s="1">
-        <v>0.86950000000000005</v>
+        <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4.4412000000000003</v>
+      <c r="B19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4.5980999999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>0.93959999999999999</v>
+        <v>0.93530000000000002</v>
       </c>
       <c r="E19" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.0295000000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4.6402000000000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.5652999999999997</v>
+      </c>
+      <c r="L19" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1.41E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3.157</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2.8975</v>
+      </c>
+      <c r="U19" s="1">
         <v>1.43E-2</v>
       </c>
-      <c r="F19" s="1">
-        <v>1.5927</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.61519999999999997</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I19" s="1">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.4516999999999998</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4.4314</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1.47E-2</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="R19" s="1">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1.6371</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1.5087999999999999</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1.14E-2</v>
-      </c>
       <c r="V19" s="1">
-        <v>0.62890000000000001</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>0.60109999999999997</v>
+        <v>0.61429999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2547,1493 +2568,1493 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>4.4654999999999996</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>0.93889999999999996</v>
+        <v>0.93259999999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>1.35E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F21" s="1">
-        <v>2.5217000000000001</v>
+        <v>4.9722999999999997</v>
       </c>
       <c r="G21" s="1">
-        <v>0.65339999999999998</v>
+        <v>0.9083</v>
       </c>
       <c r="H21" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I21" s="1">
-        <v>8.2299999999999998E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>4.5763999999999996</v>
+        <v>4.7336</v>
       </c>
       <c r="K21" s="1">
-        <v>4.3792999999999997</v>
+        <v>4.6092000000000004</v>
       </c>
       <c r="L21" s="1">
-        <v>2.3E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M21" s="1">
-        <v>0.94130000000000003</v>
+        <v>0.93489999999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>0.93589999999999995</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P21" s="1">
-        <v>1.38E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.32E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="R21" s="1">
-        <v>0.1905</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>2.7376999999999998</v>
+        <v>5.0909000000000004</v>
       </c>
       <c r="T21" s="1">
-        <v>2.2743000000000002</v>
+        <v>4.7394999999999996</v>
       </c>
       <c r="U21" s="1">
-        <v>1.9599999999999999E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="V21" s="1">
-        <v>0.67700000000000005</v>
+        <v>0.93679999999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>0.62909999999999999</v>
+        <v>0.89239999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4.9443000000000001</v>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4.3861999999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>0.92510000000000003</v>
+        <v>0.94110000000000005</v>
       </c>
       <c r="E22" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>5.1402000000000001</v>
+        <v>1.7679</v>
       </c>
       <c r="G22" s="1">
-        <v>1.4823</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="H22" s="2">
-        <v>7.8125000000000004E-7</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I22" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>4.9485000000000001</v>
+        <v>4.4058999999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>4.9397000000000002</v>
+        <v>4.3734000000000002</v>
       </c>
       <c r="L22" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.9405</v>
+      </c>
+      <c r="O22" s="1">
         <v>1E-4</v>
       </c>
-      <c r="M22" s="1">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
       <c r="P22" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R22" s="1">
-        <v>4.1300000000000003E-2</v>
+        <v>0.1258</v>
       </c>
       <c r="S22" s="1">
-        <v>5.1969000000000003</v>
+        <v>1.8991</v>
       </c>
       <c r="T22" s="1">
-        <v>5.0997000000000003</v>
+        <v>1.5983000000000001</v>
       </c>
       <c r="U22" s="1">
-        <v>1.4E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="V22" s="1">
-        <v>1.5014000000000001</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>1.4683999999999999</v>
+        <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
-        <v>5.0000999999999998</v>
+        <v>4.4207999999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>0.9234</v>
+        <v>0.94020000000000004</v>
       </c>
       <c r="E23" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>4.7119999999999997</v>
+        <v>2.6288999999999998</v>
       </c>
       <c r="G23" s="1">
-        <v>1.4574</v>
+        <v>0.87549999999999994</v>
       </c>
       <c r="H23" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I23" s="1">
-        <v>4.8899999999999999E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>5.0643000000000002</v>
+        <v>4.4448999999999996</v>
       </c>
       <c r="K23" s="1">
-        <v>4.9455999999999998</v>
+        <v>4.3982000000000001</v>
       </c>
       <c r="L23" s="1">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M23" s="1">
-        <v>0.92510000000000003</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>0.9214</v>
+        <v>0.9395</v>
       </c>
       <c r="O23" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P23" s="1">
-        <v>1.83E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.78E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="R23" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="S23" s="1">
-        <v>4.7149999999999999</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="T23" s="1">
-        <v>4.7077999999999998</v>
+        <v>2.5447000000000002</v>
       </c>
       <c r="U23" s="1">
-        <v>1.2E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="V23" s="1">
-        <v>1.4716</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="W23" s="1">
-        <v>1.4420999999999999</v>
+        <v>0.84030000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>5.0067000000000004</v>
+        <v>4.7054999999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>0.92320000000000002</v>
+        <v>0.93220000000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>5.2557</v>
+        <v>3.9521000000000002</v>
       </c>
       <c r="G24" s="1">
-        <v>1.4632000000000001</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="H24" s="2">
-        <v>7.8125000000000004E-7</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I24" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>5.0738000000000003</v>
+        <v>4.8079999999999998</v>
       </c>
       <c r="K24" s="1">
-        <v>4.9416000000000002</v>
+        <v>4.6177999999999999</v>
       </c>
       <c r="L24" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="M24" s="1">
-        <v>0.92520000000000002</v>
+        <v>0.93469999999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>0.92110000000000003</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="O24" s="1">
         <v>1E-4</v>
       </c>
       <c r="P24" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Q24" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>4.0114999999999998</v>
+      </c>
+      <c r="T24" s="1">
+        <v>3.8365999999999998</v>
+      </c>
+      <c r="U24" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="R24" s="1">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="S24" s="1">
-        <v>5.4001999999999999</v>
-      </c>
-      <c r="T24" s="1">
-        <v>5.0842000000000001</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1.5E-3</v>
-      </c>
       <c r="V24" s="1">
-        <v>1.4646999999999999</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>1.4612000000000001</v>
+        <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>5.0647000000000002</v>
+        <v>4.4889999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>0.9214</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>1.8200000000000001E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>5.7920999999999996</v>
+        <v>2.0343</v>
       </c>
       <c r="G25" s="1">
-        <v>1.4716</v>
+        <v>0.77910000000000001</v>
       </c>
       <c r="H25" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I25" s="1">
-        <v>2.98E-2</v>
+        <v>6.93E-2</v>
       </c>
       <c r="J25" s="1">
-        <v>5.1063999999999998</v>
+        <v>4.5795000000000003</v>
       </c>
       <c r="K25" s="1">
-        <v>5.0381999999999998</v>
+        <v>4.4112999999999998</v>
       </c>
       <c r="L25" s="1">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="M25" s="1">
-        <v>0.92230000000000001</v>
+        <v>0.94040000000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>0.92010000000000003</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P25" s="1">
-        <v>1.8200000000000001E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="R25" s="1">
-        <v>3.0300000000000001E-2</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="S25" s="1">
-        <v>5.8334999999999999</v>
+        <v>2.1145999999999998</v>
       </c>
       <c r="T25" s="1">
-        <v>5.7618999999999998</v>
+        <v>1.9765999999999999</v>
       </c>
       <c r="U25" s="1">
-        <v>1.77E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="V25" s="1">
-        <v>1.4854000000000001</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>1.4464999999999999</v>
+        <v>0.75860000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
-        <v>5.1353999999999997</v>
+        <v>4.6241000000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>0.91920000000000002</v>
+        <v>0.9345</v>
       </c>
       <c r="E26" s="1">
         <v>1.6E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>7.5640000000000001</v>
+        <v>3.6855000000000002</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0623</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H26" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I26" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>5.1563999999999997</v>
+        <v>4.6589999999999998</v>
       </c>
       <c r="K26" s="1">
-        <v>5.1003999999999996</v>
+        <v>4.5781999999999998</v>
       </c>
       <c r="L26" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M26" s="1">
-        <v>0.92030000000000001</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>0.91859999999999997</v>
+        <v>0.9335</v>
       </c>
       <c r="O26" s="1">
-        <v>1E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P26" s="1">
-        <v>1.61E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="R26" s="1">
-        <v>0.11360000000000001</v>
+        <v>0.1133</v>
       </c>
       <c r="S26" s="1">
-        <v>7.7224000000000004</v>
+        <v>3.8456000000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>7.4615</v>
+        <v>3.5979000000000001</v>
       </c>
       <c r="U26" s="1">
-        <v>3.9399999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="V26" s="1">
-        <v>1.1146</v>
+        <v>0.83589999999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1.0196000000000001</v>
+        <v>0.78520000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>5.1443000000000003</v>
+        <v>5.1353999999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>0.91890000000000005</v>
+        <v>0.91920000000000002</v>
       </c>
       <c r="E27" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>6.3648999999999996</v>
+        <v>7.5640000000000001</v>
       </c>
       <c r="G27" s="1">
-        <v>1.4702</v>
+        <v>1.0623</v>
       </c>
       <c r="H27" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I27" s="1">
-        <v>7.5200000000000003E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="J27" s="1">
-        <v>5.2412999999999998</v>
+        <v>5.1563999999999997</v>
       </c>
       <c r="K27" s="1">
-        <v>5.0580999999999996</v>
+        <v>5.1003999999999996</v>
       </c>
       <c r="L27" s="1">
-        <v>2.3E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M27" s="1">
-        <v>0.92159999999999997</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="N27" s="1">
-        <v>0.91590000000000005</v>
+        <v>0.91859999999999997</v>
       </c>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P27" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q27" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="R27" s="1">
-        <v>4.7000000000000002E-3</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="S27" s="1">
-        <v>6.37</v>
+        <v>7.7224000000000004</v>
       </c>
       <c r="T27" s="1">
-        <v>6.3586</v>
+        <v>7.4615</v>
       </c>
       <c r="U27" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="V27" s="1">
-        <v>1.4779</v>
+        <v>1.1146</v>
       </c>
       <c r="W27" s="1">
-        <v>1.4650000000000001</v>
+        <v>1.0196000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5.1649000000000003</v>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4.5597000000000003</v>
       </c>
       <c r="D28" s="1">
-        <v>0.91830000000000001</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="E28" s="1">
-        <v>1.83E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>6.4942000000000002</v>
+        <v>1.8367</v>
       </c>
       <c r="G28" s="1">
-        <v>1.4945999999999999</v>
+        <v>0.74390000000000001</v>
       </c>
       <c r="H28" s="2">
-        <v>3.9062500000000002E-7</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I28" s="1">
-        <v>6.6500000000000004E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="J28" s="1">
-        <v>5.2416999999999998</v>
+        <v>4.5993000000000004</v>
       </c>
       <c r="K28" s="1">
-        <v>5.0793999999999997</v>
+        <v>4.5217000000000001</v>
       </c>
       <c r="L28" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M28" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.93740000000000001</v>
       </c>
       <c r="N28" s="1">
-        <v>0.91579999999999995</v>
+        <v>0.93520000000000003</v>
       </c>
       <c r="O28" s="1">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P28" s="1">
-        <v>1.84E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="Q28" s="1">
-        <v>1.83E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="R28" s="1">
-        <v>6.0600000000000001E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="S28" s="1">
-        <v>6.5585000000000004</v>
+        <v>1.8753</v>
       </c>
       <c r="T28" s="1">
-        <v>6.4128999999999996</v>
+        <v>1.7818000000000001</v>
       </c>
       <c r="U28" s="1">
-        <v>1.23E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="V28" s="1">
-        <v>1.51</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="W28" s="1">
-        <v>1.4798</v>
+        <v>0.69240000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5.5450999999999997</v>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.7146999999999997</v>
       </c>
       <c r="D29" s="1">
-        <v>0.90580000000000005</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E29" s="1">
-        <v>1.8599999999999998E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>8.4686000000000003</v>
+        <v>3.5762999999999998</v>
       </c>
       <c r="G29" s="1">
-        <v>1.5397000000000001</v>
+        <v>0.83550000000000002</v>
       </c>
       <c r="H29" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I29" s="1">
-        <v>6.9500000000000006E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="J29" s="1">
-        <v>5.6416000000000004</v>
+        <v>4.7914000000000003</v>
       </c>
       <c r="K29" s="1">
-        <v>5.4805000000000001</v>
+        <v>4.6509</v>
       </c>
       <c r="L29" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M29" s="1">
-        <v>0.90800000000000003</v>
+        <v>0.93369999999999997</v>
       </c>
       <c r="N29" s="1">
-        <v>0.90249999999999997</v>
+        <v>0.92969999999999997</v>
       </c>
       <c r="O29" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P29" s="1">
-        <v>1.8800000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="Q29" s="1">
-        <v>1.8499999999999999E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="R29" s="1">
-        <v>0.1062</v>
+        <v>8.7800000000000003E-2</v>
       </c>
       <c r="S29" s="1">
-        <v>8.6180000000000003</v>
+        <v>3.6989999999999998</v>
       </c>
       <c r="T29" s="1">
-        <v>8.3803999999999998</v>
+        <v>3.4990999999999999</v>
       </c>
       <c r="U29" s="1">
-        <v>2.7300000000000001E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="V29" s="1">
-        <v>1.5763</v>
+        <v>0.876</v>
       </c>
       <c r="W29" s="1">
-        <v>1.5105999999999999</v>
+        <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
-        <v>9.0093999999999994</v>
+        <v>5.0000999999999998</v>
       </c>
       <c r="D30" s="1">
-        <v>0.65100000000000002</v>
+        <v>0.9234</v>
       </c>
       <c r="E30" s="1">
-        <v>5.0099999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>18.522500000000001</v>
+        <v>4.7119999999999997</v>
       </c>
       <c r="G30" s="1">
-        <v>5.7675000000000001</v>
+        <v>1.4574</v>
       </c>
       <c r="H30" s="2">
         <v>1.5625000000000001E-6</v>
       </c>
       <c r="I30" s="1">
-        <v>5.7255000000000003</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="J30" s="1">
-        <v>17.106400000000001</v>
+        <v>5.0643000000000002</v>
       </c>
       <c r="K30" s="1">
-        <v>4.9527000000000001</v>
+        <v>4.9455999999999998</v>
       </c>
       <c r="L30" s="1">
-        <v>0.38700000000000001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="M30" s="1">
-        <v>0.92490000000000006</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="N30" s="1">
-        <v>0.1037</v>
+        <v>0.9214</v>
       </c>
       <c r="O30" s="1">
-        <v>4.53E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P30" s="1">
-        <v>0.11409999999999999</v>
+        <v>1.83E-2</v>
       </c>
       <c r="Q30" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="R30" s="1">
-        <v>16.793199999999999</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="S30" s="1">
-        <v>42.271599999999999</v>
+        <v>4.7149999999999999</v>
       </c>
       <c r="T30" s="1">
-        <v>6.6227999999999998</v>
+        <v>4.7077999999999998</v>
       </c>
       <c r="U30" s="1">
-        <v>6.0439999999999996</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V30" s="1">
-        <v>14.315</v>
+        <v>1.4716</v>
       </c>
       <c r="W30" s="1">
-        <v>1.4913000000000001</v>
+        <v>1.4420999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>9.0215999999999994</v>
+        <v>5.1443000000000003</v>
       </c>
       <c r="D31" s="1">
-        <v>0.65139999999999998</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="E31" s="1">
-        <v>5.0200000000000002E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>18.521699999999999</v>
+        <v>6.3648999999999996</v>
       </c>
       <c r="G31" s="1">
-        <v>5.8631000000000002</v>
+        <v>1.4702</v>
       </c>
       <c r="H31" s="2">
         <v>1.5625000000000001E-6</v>
       </c>
       <c r="I31" s="1">
-        <v>5.6948999999999996</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="J31" s="1">
-        <v>17.0748</v>
+        <v>5.2412999999999998</v>
       </c>
       <c r="K31" s="1">
-        <v>4.9036</v>
+        <v>5.0580999999999996</v>
       </c>
       <c r="L31" s="1">
-        <v>0.38500000000000001</v>
+        <v>2.3E-3</v>
       </c>
       <c r="M31" s="1">
-        <v>0.9264</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="N31" s="1">
-        <v>0.107</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="O31" s="1">
-        <v>4.5499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0.11459999999999999</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="Q31" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="R31" s="1">
-        <v>18.068899999999999</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="S31" s="1">
-        <v>44.074800000000003</v>
+        <v>6.37</v>
       </c>
       <c r="T31" s="1">
-        <v>5.7076000000000002</v>
+        <v>6.3586</v>
       </c>
       <c r="U31" s="1">
-        <v>6.1872999999999996</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="V31" s="1">
-        <v>14.613300000000001</v>
+        <v>1.4779</v>
       </c>
       <c r="W31" s="1">
-        <v>1.4743999999999999</v>
+        <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>13.0242</v>
+        <v>4.9443000000000001</v>
       </c>
       <c r="D32" s="1">
-        <v>0.37880000000000003</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="E32" s="1">
-        <v>8.2100000000000006E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>32.105400000000003</v>
+        <v>5.1402000000000001</v>
       </c>
       <c r="G32" s="1">
-        <v>10.138299999999999</v>
+        <v>1.4823</v>
       </c>
       <c r="H32" s="2">
-        <v>3.9062500000000002E-7</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I32" s="1">
-        <v>5.7614999999999998</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J32" s="1">
-        <v>17.102599999999999</v>
+        <v>4.9485000000000001</v>
       </c>
       <c r="K32" s="1">
-        <v>4.8761999999999999</v>
+        <v>4.9397000000000002</v>
       </c>
       <c r="L32" s="1">
-        <v>0.38779999999999998</v>
+        <v>1E-4</v>
       </c>
       <c r="M32" s="1">
-        <v>0.92720000000000002</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="N32" s="1">
-        <v>0.1041</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="O32" s="1">
-        <v>4.5400000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>0.1143</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q32" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="R32" s="1">
-        <v>19.022099999999998</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="S32" s="1">
-        <v>45.627400000000002</v>
+        <v>5.1969000000000003</v>
       </c>
       <c r="T32" s="1">
-        <v>5.2042000000000002</v>
+        <v>5.0997000000000003</v>
       </c>
       <c r="U32" s="1">
-        <v>6.1365999999999996</v>
+        <v>1.4E-2</v>
       </c>
       <c r="V32" s="1">
-        <v>14.4992</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="W32" s="1">
-        <v>1.4598</v>
+        <v>1.4683999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1">
-        <v>13.370799999999999</v>
+        <v>5.0067000000000004</v>
       </c>
       <c r="D33" s="1">
-        <v>0.36299999999999999</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="E33" s="1">
-        <v>8.1699999999999995E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>29.293600000000001</v>
+        <v>5.2557</v>
       </c>
       <c r="G33" s="1">
-        <v>10.1837</v>
+        <v>1.4632000000000001</v>
       </c>
       <c r="H33" s="2">
-        <v>1.9531250000000001E-7</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I33" s="1">
-        <v>5.4036999999999997</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J33" s="1">
-        <v>17.197299999999998</v>
+        <v>5.0738000000000003</v>
       </c>
       <c r="K33" s="1">
-        <v>5.7287999999999997</v>
+        <v>4.9416000000000002</v>
       </c>
       <c r="L33" s="1">
-        <v>0.37940000000000002</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M33" s="1">
-        <v>0.89949999999999997</v>
+        <v>0.92520000000000002</v>
       </c>
       <c r="N33" s="1">
-        <v>9.4100000000000003E-2</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O33" s="1">
-        <v>4.4699999999999997E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="P33" s="1">
-        <v>0.1133</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="Q33" s="1">
-        <v>1.8499999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="R33" s="1">
-        <v>14.532</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="S33" s="1">
-        <v>39.689599999999999</v>
+        <v>5.4001999999999999</v>
       </c>
       <c r="T33" s="1">
-        <v>8.7428000000000008</v>
+        <v>5.0842000000000001</v>
       </c>
       <c r="U33" s="1">
-        <v>6.08</v>
+        <v>1.5E-3</v>
       </c>
       <c r="V33" s="1">
-        <v>14.504300000000001</v>
+        <v>1.4646999999999999</v>
       </c>
       <c r="W33" s="1">
-        <v>1.5853999999999999</v>
+        <v>1.4612000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1">
-        <v>17.058399999999999</v>
+        <v>5.0647000000000002</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1087</v>
+        <v>0.9214</v>
       </c>
       <c r="E34" s="1">
-        <v>0.11509999999999999</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>44.948500000000003</v>
+        <v>5.7920999999999996</v>
       </c>
       <c r="G34" s="1">
-        <v>14.6457</v>
+        <v>1.4716</v>
       </c>
       <c r="H34" s="2">
-        <v>3.9062500000000002E-7</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I34" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>2.98E-2</v>
       </c>
       <c r="J34" s="1">
-        <v>17.0623</v>
+        <v>5.1063999999999998</v>
       </c>
       <c r="K34" s="1">
-        <v>17.053000000000001</v>
+        <v>5.0381999999999998</v>
       </c>
       <c r="L34" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M34" s="1">
-        <v>0.10929999999999999</v>
+        <v>0.92230000000000001</v>
       </c>
       <c r="N34" s="1">
-        <v>0.10829999999999999</v>
+        <v>0.92010000000000003</v>
       </c>
       <c r="O34" s="1">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>0.1152</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.1149</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="R34" s="1">
-        <v>6.8599999999999994E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="S34" s="1">
-        <v>45.003300000000003</v>
+        <v>5.8334999999999999</v>
       </c>
       <c r="T34" s="1">
-        <v>44.851900000000001</v>
+        <v>5.7618999999999998</v>
       </c>
       <c r="U34" s="1">
-        <v>3.9E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="V34" s="1">
-        <v>14.678699999999999</v>
+        <v>1.4854000000000001</v>
       </c>
       <c r="W34" s="1">
-        <v>14.5909</v>
+        <v>1.4464999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1">
-        <v>17.107099999999999</v>
+        <v>5.1649000000000003</v>
       </c>
       <c r="D35" s="1">
-        <v>0.1036</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="E35" s="1">
-        <v>0.11409999999999999</v>
+        <v>1.83E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>43.607900000000001</v>
+        <v>6.4942000000000002</v>
       </c>
       <c r="G35" s="1">
-        <v>14.5426</v>
+        <v>1.4945999999999999</v>
       </c>
       <c r="H35" s="2">
-        <v>7.8125000000000004E-7</v>
+        <v>3.9062500000000002E-7</v>
       </c>
       <c r="I35" s="1">
-        <v>1.6799999999999999E-2</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="J35" s="1">
-        <v>17.130600000000001</v>
+        <v>5.2416999999999998</v>
       </c>
       <c r="K35" s="1">
-        <v>17.091999999999999</v>
+        <v>5.0793999999999997</v>
       </c>
       <c r="L35" s="1">
-        <v>1.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M35" s="1">
-        <v>0.1052</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="N35" s="1">
-        <v>0.1011</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="O35" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0.1143</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.1138</v>
+        <v>1.83E-2</v>
       </c>
       <c r="R35" s="1">
-        <v>8.7099999999999997E-2</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="S35" s="1">
-        <v>43.7303</v>
+        <v>6.5585000000000004</v>
       </c>
       <c r="T35" s="1">
-        <v>43.534999999999997</v>
+        <v>6.4128999999999996</v>
       </c>
       <c r="U35" s="1">
-        <v>0.12529999999999999</v>
+        <v>1.23E-2</v>
       </c>
       <c r="V35" s="1">
-        <v>14.635199999999999</v>
+        <v>1.51</v>
       </c>
       <c r="W35" s="1">
-        <v>14.365500000000001</v>
+        <v>1.4798</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1">
-        <v>17.127600000000001</v>
+        <v>5.5450999999999997</v>
       </c>
       <c r="D36" s="1">
-        <v>0.10150000000000001</v>
+        <v>0.90580000000000005</v>
       </c>
       <c r="E36" s="1">
-        <v>0.1138</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>46.500999999999998</v>
+        <v>8.4686000000000003</v>
       </c>
       <c r="G36" s="1">
-        <v>14.3329</v>
+        <v>1.5397000000000001</v>
       </c>
       <c r="H36" s="2">
-        <v>1.9531250000000001E-7</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I36" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="J36" s="1">
-        <v>17.131599999999999</v>
+        <v>5.6416000000000004</v>
       </c>
       <c r="K36" s="1">
-        <v>17.122900000000001</v>
+        <v>5.4805000000000001</v>
       </c>
       <c r="L36" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="M36" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N36" s="1">
-        <v>0.10100000000000001</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="O36" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P36" s="1">
-        <v>0.1138</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="Q36" s="1">
-        <v>0.1137</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="R36" s="1">
-        <v>0.14929999999999999</v>
+        <v>0.1062</v>
       </c>
       <c r="S36" s="1">
-        <v>46.700499999999998</v>
+        <v>8.6180000000000003</v>
       </c>
       <c r="T36" s="1">
-        <v>46.341500000000003</v>
+        <v>8.3803999999999998</v>
       </c>
       <c r="U36" s="1">
-        <v>0.13500000000000001</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="V36" s="1">
-        <v>14.472899999999999</v>
+        <v>1.5763</v>
       </c>
       <c r="W36" s="1">
-        <v>14.150399999999999</v>
+        <v>1.5105999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4">
-        <v>4.5597000000000003</v>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.0093999999999994</v>
       </c>
       <c r="D37" s="1">
-        <v>0.93630000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E37" s="1">
-        <v>1.61E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="F37" s="1">
-        <v>1.8367</v>
+        <v>18.522500000000001</v>
       </c>
       <c r="G37" s="1">
-        <v>0.74390000000000001</v>
+        <v>5.7675000000000001</v>
       </c>
       <c r="H37" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I37" s="1">
-        <v>3.1699999999999999E-2</v>
+        <v>5.7255000000000003</v>
       </c>
       <c r="J37" s="1">
-        <v>4.5993000000000004</v>
+        <v>17.106400000000001</v>
       </c>
       <c r="K37" s="1">
-        <v>4.5217000000000001</v>
+        <v>4.9527000000000001</v>
       </c>
       <c r="L37" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="M37" s="1">
-        <v>0.93740000000000001</v>
+        <v>0.92490000000000006</v>
       </c>
       <c r="N37" s="1">
-        <v>0.93520000000000003</v>
+        <v>0.1037</v>
       </c>
       <c r="O37" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>4.53E-2</v>
       </c>
       <c r="P37" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="Q37" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="R37" s="1">
-        <v>3.9899999999999998E-2</v>
+        <v>16.793199999999999</v>
       </c>
       <c r="S37" s="1">
-        <v>1.8753</v>
+        <v>42.271599999999999</v>
       </c>
       <c r="T37" s="1">
-        <v>1.7818000000000001</v>
+        <v>6.6227999999999998</v>
       </c>
       <c r="U37" s="1">
-        <v>3.6400000000000002E-2</v>
+        <v>6.0439999999999996</v>
       </c>
       <c r="V37" s="1">
-        <v>0.77059999999999995</v>
+        <v>14.315</v>
       </c>
       <c r="W37" s="1">
-        <v>0.69240000000000002</v>
+        <v>1.4913000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
-        <v>4.5631000000000004</v>
+        <v>9.0215999999999994</v>
       </c>
       <c r="D38" s="1">
-        <v>0.93620000000000003</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="E38" s="1">
-        <v>1.34E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="F38" s="1">
-        <v>2.9523000000000001</v>
+        <v>18.521699999999999</v>
       </c>
       <c r="G38" s="1">
-        <v>0.64790000000000003</v>
+        <v>5.8631000000000002</v>
       </c>
       <c r="H38" s="2">
-        <v>1.2500000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I38" s="1">
-        <v>6.9099999999999995E-2</v>
+        <v>5.6948999999999996</v>
       </c>
       <c r="J38" s="1">
-        <v>4.6561000000000003</v>
+        <v>17.0748</v>
       </c>
       <c r="K38" s="1">
-        <v>4.4904999999999999</v>
+        <v>4.9036</v>
       </c>
       <c r="L38" s="1">
-        <v>1.9E-3</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="M38" s="1">
-        <v>0.93820000000000003</v>
+        <v>0.9264</v>
       </c>
       <c r="N38" s="1">
-        <v>0.93359999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="O38" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="P38" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>0.11459999999999999</v>
       </c>
       <c r="Q38" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="R38" s="1">
-        <v>0.12509999999999999</v>
+        <v>18.068899999999999</v>
       </c>
       <c r="S38" s="1">
-        <v>3.0600999999999998</v>
+        <v>44.074800000000003</v>
       </c>
       <c r="T38" s="1">
-        <v>2.7768000000000002</v>
+        <v>5.7076000000000002</v>
       </c>
       <c r="U38" s="1">
-        <v>7.6E-3</v>
+        <v>6.1872999999999996</v>
       </c>
       <c r="V38" s="1">
-        <v>0.65810000000000002</v>
+        <v>14.613300000000001</v>
       </c>
       <c r="W38" s="1">
-        <v>0.63990000000000002</v>
+        <v>1.4743999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="5">
-        <v>4.5980999999999996</v>
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1">
+        <v>13.370799999999999</v>
       </c>
       <c r="D39" s="1">
-        <v>0.93530000000000002</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="E39" s="1">
-        <v>1.44E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="F39" s="1">
-        <v>3.0295000000000001</v>
+        <v>29.293600000000001</v>
       </c>
       <c r="G39" s="1">
-        <v>0.62849999999999995</v>
+        <v>10.1837</v>
       </c>
       <c r="H39" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>1.9531250000000001E-7</v>
       </c>
       <c r="I39" s="1">
-        <v>3.1300000000000001E-2</v>
+        <v>5.4036999999999997</v>
       </c>
       <c r="J39" s="1">
-        <v>4.6402000000000001</v>
+        <v>17.197299999999998</v>
       </c>
       <c r="K39" s="1">
-        <v>4.5652999999999997</v>
+        <v>5.7287999999999997</v>
       </c>
       <c r="L39" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>0.37940000000000002</v>
       </c>
       <c r="M39" s="1">
-        <v>0.93620000000000003</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="N39" s="1">
-        <v>0.93410000000000004</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="O39" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="P39" s="1">
-        <v>1.46E-2</v>
+        <v>0.1133</v>
       </c>
       <c r="Q39" s="1">
-        <v>1.41E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="R39" s="1">
-        <v>0.106</v>
+        <v>14.532</v>
       </c>
       <c r="S39" s="1">
-        <v>3.157</v>
+        <v>39.689599999999999</v>
       </c>
       <c r="T39" s="1">
-        <v>2.8975</v>
+        <v>8.7428000000000008</v>
       </c>
       <c r="U39" s="1">
-        <v>1.43E-2</v>
+        <v>6.08</v>
       </c>
       <c r="V39" s="1">
-        <v>0.64800000000000002</v>
+        <v>14.504300000000001</v>
       </c>
       <c r="W39" s="1">
-        <v>0.61429999999999996</v>
+        <v>1.5853999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
-        <v>4.6957000000000004</v>
+        <v>13.0242</v>
       </c>
       <c r="D40" s="1">
-        <v>0.93240000000000001</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="E40" s="1">
-        <v>1.32E-2</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="F40" s="1">
-        <v>4.0561999999999996</v>
+        <v>32.105400000000003</v>
       </c>
       <c r="G40" s="1">
-        <v>0.65849999999999997</v>
+        <v>10.138299999999999</v>
       </c>
       <c r="H40" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>3.9062500000000002E-7</v>
       </c>
       <c r="I40" s="1">
-        <v>4.3499999999999997E-2</v>
+        <v>5.7614999999999998</v>
       </c>
       <c r="J40" s="1">
-        <v>4.7426000000000004</v>
+        <v>17.102599999999999</v>
       </c>
       <c r="K40" s="1">
-        <v>4.6376999999999997</v>
+        <v>4.8761999999999999</v>
       </c>
       <c r="L40" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="M40" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="N40" s="1">
-        <v>0.93110000000000004</v>
+        <v>0.1041</v>
       </c>
       <c r="O40" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="P40" s="1">
-        <v>1.35E-2</v>
+        <v>0.1143</v>
       </c>
       <c r="Q40" s="1">
-        <v>1.2699999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="R40" s="1">
-        <v>0.15509999999999999</v>
+        <v>19.022099999999998</v>
       </c>
       <c r="S40" s="1">
-        <v>4.2365000000000004</v>
+        <v>45.627400000000002</v>
       </c>
       <c r="T40" s="1">
-        <v>3.8578999999999999</v>
+        <v>5.2042000000000002</v>
       </c>
       <c r="U40" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>6.1365999999999996</v>
       </c>
       <c r="V40" s="1">
-        <v>0.6623</v>
+        <v>14.4992</v>
       </c>
       <c r="W40" s="1">
-        <v>0.65380000000000005</v>
+        <v>1.4598</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="5">
-        <v>4.7146999999999997</v>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1">
+        <v>17.127600000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>0.93189999999999995</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="E41" s="1">
-        <v>1.6799999999999999E-2</v>
+        <v>0.1138</v>
       </c>
       <c r="F41" s="1">
-        <v>3.5762999999999998</v>
+        <v>46.500999999999998</v>
       </c>
       <c r="G41" s="1">
-        <v>0.83550000000000002</v>
+        <v>14.3329</v>
       </c>
       <c r="H41" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>1.9531250000000001E-7</v>
       </c>
       <c r="I41" s="1">
-        <v>5.8099999999999999E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J41" s="1">
-        <v>4.7914000000000003</v>
+        <v>17.131599999999999</v>
       </c>
       <c r="K41" s="1">
-        <v>4.6509</v>
+        <v>17.122900000000001</v>
       </c>
       <c r="L41" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M41" s="1">
-        <v>0.93369999999999997</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N41" s="1">
-        <v>0.92969999999999997</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="O41" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1.7399999999999999E-2</v>
+        <v>0.1138</v>
       </c>
       <c r="Q41" s="1">
-        <v>1.6199999999999999E-2</v>
+        <v>0.1137</v>
       </c>
       <c r="R41" s="1">
-        <v>8.7800000000000003E-2</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="S41" s="1">
-        <v>3.6989999999999998</v>
+        <v>46.700499999999998</v>
       </c>
       <c r="T41" s="1">
-        <v>3.4990999999999999</v>
+        <v>46.341500000000003</v>
       </c>
       <c r="U41" s="1">
-        <v>2.87E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="V41" s="1">
-        <v>0.876</v>
+        <v>14.472899999999999</v>
       </c>
       <c r="W41" s="1">
-        <v>0.81310000000000004</v>
+        <v>14.150399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
@@ -4041,154 +4062,168 @@
         <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
-        <v>4.8475999999999999</v>
+        <v>17.107099999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>0.92800000000000005</v>
+        <v>0.1036</v>
       </c>
       <c r="E42" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="F42" s="1">
-        <v>7.3387000000000002</v>
+        <v>43.607900000000001</v>
       </c>
       <c r="G42" s="1">
-        <v>0.97440000000000004</v>
+        <v>14.5426</v>
       </c>
       <c r="H42" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I42" s="1">
-        <v>7.51E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="J42" s="1">
-        <v>4.9142999999999999</v>
+        <v>17.130600000000001</v>
       </c>
       <c r="K42" s="1">
-        <v>4.7426000000000004</v>
+        <v>17.091999999999999</v>
       </c>
       <c r="L42" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="M42" s="1">
-        <v>0.93110000000000004</v>
+        <v>0.1052</v>
       </c>
       <c r="N42" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.1011</v>
       </c>
       <c r="O42" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P42" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.1143</v>
       </c>
       <c r="Q42" s="1">
-        <v>1.43E-2</v>
+        <v>0.1138</v>
       </c>
       <c r="R42" s="1">
-        <v>1.7500000000000002E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
       <c r="S42" s="1">
-        <v>7.3533999999999997</v>
+        <v>43.7303</v>
       </c>
       <c r="T42" s="1">
-        <v>7.3140999999999998</v>
+        <v>43.534999999999997</v>
       </c>
       <c r="U42" s="1">
-        <v>1.24E-2</v>
+        <v>0.12529999999999999</v>
       </c>
       <c r="V42" s="1">
-        <v>0.98939999999999995</v>
+        <v>14.635199999999999</v>
       </c>
       <c r="W42" s="1">
-        <v>0.95899999999999996</v>
+        <v>14.365500000000001</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
-        <v>5.0486000000000004</v>
+        <v>17.058399999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>0.92190000000000005</v>
+        <v>0.1087</v>
       </c>
       <c r="E43" s="1">
-        <v>1.35E-2</v>
+        <v>0.11509999999999999</v>
       </c>
       <c r="F43" s="1">
-        <v>6.3566000000000003</v>
+        <v>44.948500000000003</v>
       </c>
       <c r="G43" s="1">
-        <v>0.75249999999999995</v>
+        <v>14.6457</v>
       </c>
       <c r="H43" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>3.9062500000000002E-7</v>
       </c>
       <c r="I43" s="1">
-        <v>4.8500000000000001E-2</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="J43" s="1">
-        <v>5.1120999999999999</v>
+        <v>17.0623</v>
       </c>
       <c r="K43" s="1">
-        <v>4.9943999999999997</v>
+        <v>17.053000000000001</v>
       </c>
       <c r="L43" s="1">
-        <v>1.5E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M43" s="1">
-        <v>0.92359999999999998</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="N43" s="1">
-        <v>0.92</v>
+        <v>0.10829999999999999</v>
       </c>
       <c r="O43" s="1">
         <v>1E-4</v>
       </c>
       <c r="P43" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>0.1152</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.34E-2</v>
+        <v>0.1149</v>
       </c>
       <c r="R43" s="1">
-        <v>2.9100000000000001E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="S43" s="1">
-        <v>6.3962000000000003</v>
+        <v>45.003300000000003</v>
       </c>
       <c r="T43" s="1">
-        <v>6.3272000000000004</v>
+        <v>44.851900000000001</v>
       </c>
       <c r="U43" s="1">
-        <v>4.07E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="V43" s="1">
-        <v>0.80389999999999995</v>
+        <v>14.678699999999999</v>
       </c>
       <c r="W43" s="1">
-        <v>0.70430000000000004</v>
+        <v>14.5909</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W43" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="LSTM-3-ew2"/>
-        <filter val="LSTM-3-ew3"/>
-        <filter val="LSTM-3-ew4"/>
-        <filter val="LSTM-3-obs"/>
-        <filter val="LSTM-3-sg5"/>
-        <filter val="LSTM-3-sg7"/>
-        <filter val="LSTM-3-sg9"/>
+        <filter val="CNN-ew2"/>
+        <filter val="CNN-ew3"/>
+        <filter val="CNN-ew4"/>
+        <filter val="CNN-obs"/>
+        <filter val="CNN-sg5"/>
+        <filter val="CNN-sg7"/>
+        <filter val="CNN-sg9"/>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
         <filter val="LSTM-ew2"/>
         <filter val="LSTM-ew3"/>
         <filter val="LSTM-ew4"/>
@@ -4196,10 +4231,17 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W43">
-      <sortCondition ref="C1:C43"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W43">
+      <sortCondition ref="E1:E43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266767D-3BB3-4F3B-AF53-5E71223E91E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09522DDD-5FD3-47B5-ACA9-0419C3E85B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4286" yWindow="2374" windowWidth="22491" windowHeight="13252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26666" yWindow="2983" windowWidth="22492" windowHeight="13251" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fc1-colour-FINAL'!$A$1:$W$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$K$16:$O$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -224,6 +226,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,7 +742,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,6 +766,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,31 +1129,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D20:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E67" sqref="E66:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.23046875" style="1"/>
     <col min="2" max="2" width="12.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.921875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.23046875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3828125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.23046875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.61328125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.921875" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.765625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="17.69140625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.4609375" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="16.765625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.69140625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
@@ -1217,7 +1226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>0.65380000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>0.63990000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1591,7 +1600,7 @@
       <c r="F7" s="1">
         <v>3.1141000000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>0.75149999999999995</v>
       </c>
       <c r="H7" s="2">
@@ -1643,7 +1652,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1662,7 +1671,7 @@
       <c r="F8" s="1">
         <v>3.6164000000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>0.75470000000000004</v>
       </c>
       <c r="H8" s="2">
@@ -1714,7 +1723,7 @@
         <v>0.74690000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>0.80020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1927,7 +1936,7 @@
         <v>0.81940000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -1946,7 +1955,7 @@
       <c r="F12" s="1">
         <v>1.6294999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>0.7137</v>
       </c>
       <c r="H12" s="2">
@@ -1998,7 +2007,7 @@
         <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2017,7 +2026,7 @@
       <c r="F13" s="1">
         <v>3.1238000000000001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>0.76939999999999997</v>
       </c>
       <c r="H13" s="2">
@@ -2069,7 +2078,7 @@
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>0.60109999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2353,7 +2362,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>0.61429999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>0.98229999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>0.89239999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -2656,7 +2665,7 @@
       <c r="F22" s="1">
         <v>1.7679</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>0.75749999999999995</v>
       </c>
       <c r="H22" s="2">
@@ -2708,7 +2717,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2779,7 +2788,7 @@
         <v>0.84030000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2850,7 +2859,7 @@
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>0.75860000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>0.78520000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3063,7 +3072,7 @@
         <v>1.0196000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,7 +3091,7 @@
       <c r="F28" s="1">
         <v>1.8367</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="6">
         <v>0.74390000000000001</v>
       </c>
       <c r="H28" s="2">
@@ -3134,7 +3143,7 @@
         <v>0.69240000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3205,7 +3214,7 @@
         <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3276,7 +3285,7 @@
         <v>1.4420999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>1.4683999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3489,7 +3498,7 @@
         <v>1.4612000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -3560,7 +3569,7 @@
         <v>1.4464999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>1.4798</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>1.5105999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -3773,7 +3782,7 @@
         <v>1.4913000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3844,7 +3853,7 @@
         <v>1.4743999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>1.5853999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -3986,7 +3995,7 @@
         <v>1.4598</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>14.150399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>14.365500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4203,48 +4212,650 @@
   <autoFilter ref="A1:W43" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="CNN-ew2"/>
-        <filter val="CNN-ew3"/>
-        <filter val="CNN-ew4"/>
-        <filter val="CNN-obs"/>
-        <filter val="CNN-sg5"/>
-        <filter val="CNN-sg7"/>
-        <filter val="CNN-sg9"/>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
-        <filter val="LSTM-obs"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
+        <filter val="LSTM-3-ew2"/>
+        <filter val="LSTM-3-ew3"/>
+        <filter val="LSTM-3-ew4"/>
+        <filter val="LSTM-3-obs"/>
+        <filter val="LSTM-3-sg5"/>
+        <filter val="LSTM-3-sg7"/>
+        <filter val="LSTM-3-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W43">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W19">
       <sortCondition ref="E1:E43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AF7E5-FF80-46CA-B3B5-1B3AA3AB4476}">
+  <dimension ref="E7:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="9.23046875" customWidth="1"/>
+    <col min="6" max="6" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.38E-2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.38E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I11" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.7137</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.04E-2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.43E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.7137</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.43E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.44E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I15" s="9">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="N17" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.24E-2</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.32E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.49E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I19" s="9">
+        <v>7.6E-3</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.34E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.9083</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1.0623</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1.61E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I27" s="9">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="K16:O23" xr:uid="{C96AF7E5-FF80-46CA-B3B5-1B3AA3AB4476}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K17:O23">
+      <sortCondition ref="L16:L23"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09522DDD-5FD3-47B5-ACA9-0419C3E85B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02853C43-CB72-48A0-969F-6F0B2DC44DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26666" yWindow="2983" windowWidth="22492" windowHeight="13251" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2203" windowWidth="18583" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fc1-colour-FINAL'!$A$1:$W$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$K$16:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$K$16:$P$23</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -227,7 +239,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -698,7 +710,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -741,8 +753,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,11 +781,12 @@
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -812,6 +826,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1129,8 +1144,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E67" sqref="E66:E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1226,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1368,7 +1383,7 @@
         <v>0.65380000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>0.63990000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1510,7 +1525,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1581,7 +1596,7 @@
         <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1652,7 +1667,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1723,7 +1738,7 @@
         <v>0.74690000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1936,7 +1951,7 @@
         <v>0.81940000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -3072,7 +3087,7 @@
         <v>1.0196000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3143,7 +3158,7 @@
         <v>0.69240000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -4212,16 +4227,16 @@
   <autoFilter ref="A1:W43" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="LSTM-3-ew2"/>
-        <filter val="LSTM-3-ew3"/>
-        <filter val="LSTM-3-ew4"/>
-        <filter val="LSTM-3-obs"/>
-        <filter val="LSTM-3-sg5"/>
-        <filter val="LSTM-3-sg7"/>
-        <filter val="LSTM-3-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W19">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W29">
       <sortCondition ref="E1:E43"/>
     </sortState>
   </autoFilter>
@@ -4232,10 +4247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AF7E5-FF80-46CA-B3B5-1B3AA3AB4476}">
-  <dimension ref="E7:O28"/>
+  <dimension ref="E7:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4296,20 +4311,20 @@
       <c r="I8" s="9">
         <v>3.1E-2</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>55</v>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L8" s="1">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.75149999999999995</v>
+        <v>1.38E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.80110000000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="O8" s="1">
-        <v>3.1E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.4">
@@ -4360,20 +4375,20 @@
       <c r="I10" s="9">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>45</v>
+      <c r="K10" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="L10" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.80110000000000003</v>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.75149999999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O10" s="1">
-        <v>1.3100000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="11" spans="5:15" x14ac:dyDescent="0.4">
@@ -4392,20 +4407,20 @@
       <c r="I11" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>40</v>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L11" s="1">
-        <v>1.43E-2</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.7137</v>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.97440000000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O11" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="12" spans="5:15" x14ac:dyDescent="0.4">
@@ -4424,20 +4439,20 @@
       <c r="I12" s="9">
         <v>1.04E-2</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
+      <c r="K12" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L12" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>0.97440000000000004</v>
+        <v>0.83550000000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O12" s="1">
-        <v>1.24E-2</v>
+        <v>2.87E-2</v>
       </c>
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.4">
@@ -4488,20 +4503,20 @@
       <c r="I14" s="9">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>30</v>
+      <c r="K14" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="L14" s="1">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.83550000000000002</v>
+        <v>1.43E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.7137</v>
       </c>
       <c r="N14" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O14" s="1">
-        <v>2.87E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.4">
@@ -4551,7 +4566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
@@ -4582,8 +4597,11 @@
       <c r="O17" s="1">
         <v>1.47E-2</v>
       </c>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="P17" s="10">
+        <v>0.16083916083916083</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
@@ -4614,8 +4632,11 @@
       <c r="O18" s="1">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="P18" s="10">
+        <v>4.3478260869565209E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
@@ -4646,8 +4667,11 @@
       <c r="O19" s="1">
         <v>7.6E-3</v>
       </c>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="P19" s="10">
+        <v>2.8985507246376763E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
@@ -4678,8 +4702,11 @@
       <c r="O20" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="P20" s="10">
+        <v>7.3529411764705439E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
@@ -4710,8 +4737,11 @@
       <c r="O21" s="1">
         <v>4.07E-2</v>
       </c>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="P21" s="10">
+        <v>8.7837837837837884E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
@@ -4742,8 +4772,11 @@
       <c r="O22" s="1">
         <v>1.14E-2</v>
       </c>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="P22" s="10">
+        <v>0.11180124223602482</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
@@ -4774,8 +4807,11 @@
       <c r="O23" s="1">
         <v>1.43E-2</v>
       </c>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="P23" s="10">
+        <v>0.14285714285714282</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4792,7 +4828,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4809,7 +4845,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
@@ -4826,7 +4862,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E27" s="5" t="s">
         <v>35</v>
       </c>
@@ -4843,7 +4879,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -4851,8 +4887,8 @@
       <c r="I28" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="K16:O23" xr:uid="{C96AF7E5-FF80-46CA-B3B5-1B3AA3AB4476}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K17:O23">
+  <autoFilter ref="K16:P23" xr:uid="{C96AF7E5-FF80-46CA-B3B5-1B3AA3AB4476}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K17:P23">
       <sortCondition ref="L16:L23"/>
     </sortState>
   </autoFilter>

--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02853C43-CB72-48A0-969F-6F0B2DC44DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06414FEE-65AB-4625-9365-4171AD4B4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2203" windowWidth="18583" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3626" yWindow="1663" windowWidth="27308" windowHeight="14331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1809,7 +1809,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0.80020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0.60109999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0.61429999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0.98229999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>0.89239999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>0.84030000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>0.75860000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.78520000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>1.4420999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1.4683999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1.4612000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1.4464999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>1.4798</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>1.5105999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>1.4913000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>1.4743999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1.5853999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>1.4598</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>14.150399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>14.365500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4227,6 +4227,27 @@
   <autoFilter ref="A1:W43" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
+        <filter val="CNN-ew2"/>
+        <filter val="CNN-ew3"/>
+        <filter val="CNN-ew4"/>
+        <filter val="CNN-obs"/>
+        <filter val="CNN-sg5"/>
+        <filter val="CNN-sg7"/>
+        <filter val="CNN-sg9"/>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
         <filter val="LSTM-ew2"/>
         <filter val="LSTM-ew3"/>
         <filter val="LSTM-ew4"/>
@@ -4234,9 +4255,16 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W29">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W43">
       <sortCondition ref="E1:E43"/>
     </sortState>
   </autoFilter>

--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06414FEE-65AB-4625-9365-4171AD4B4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53338FC4-DE68-4276-AD51-F5A406A7E9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3626" yWindow="1663" windowWidth="27308" windowHeight="14331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32074" yWindow="2631" windowWidth="31397" windowHeight="14332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -1141,22 +1141,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.23046875" style="1"/>
     <col min="2" max="2" width="12.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.921875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.921875" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14.23046875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.3828125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.23046875" style="1" hidden="1" customWidth="1"/>
@@ -1165,11 +1163,11 @@
     <col min="13" max="13" width="14.84375" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.61328125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.921875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16.69140625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.765625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17.69140625" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.4609375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.921875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.69140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.4609375" style="1" customWidth="1"/>
     <col min="21" max="21" width="16.765625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.69140625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
@@ -1241,7 +1239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1383,7 +1381,7 @@
         <v>0.65380000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>0.63990000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1525,7 +1523,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2095,215 +2093,215 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.4412000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.5927</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.4516999999999998</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4.4314</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.6371</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.5087999999999999</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1.14E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.60109999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>4.4915000000000003</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>0.93820000000000003</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>3.8639000000000001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <v>0.84919999999999995</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="1">
         <v>5.79E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="1">
         <v>4.5332999999999997</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K15" s="1">
         <v>4.4096000000000002</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>0.94040000000000001</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N15" s="1">
         <v>0.93710000000000004</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O15" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P15" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q15" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R15" s="1">
         <v>0.1787</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S15" s="1">
         <v>4.0347</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T15" s="1">
         <v>3.6172</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U15" s="1">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V15" s="1">
         <v>0.89439999999999997</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W15" s="1">
         <v>0.8034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4.4412000000000003</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.43E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.5927</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.61519999999999997</v>
-      </c>
-      <c r="H15" s="2">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4.4516999999999998</v>
-      </c>
-      <c r="K15" s="1">
-        <v>4.4314</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1.47E-2</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="R15" s="1">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="S15" s="1">
-        <v>1.6371</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1.5087999999999999</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1.14E-2</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0.62890000000000001</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0.60109999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.3030999999999997</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.5980999999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>0.94330000000000003</v>
+        <v>0.93530000000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>1.47E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>2.1255000000000002</v>
+        <v>3.0295000000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>0.83630000000000004</v>
+        <v>0.62849999999999995</v>
       </c>
       <c r="H16" s="2">
-        <v>6.2500000000000003E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I16" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>4.3282999999999996</v>
+        <v>4.6402000000000001</v>
       </c>
       <c r="K16" s="1">
-        <v>4.2693000000000003</v>
+        <v>4.5652999999999997</v>
       </c>
       <c r="L16" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M16" s="1">
-        <v>0.94420000000000004</v>
+        <v>0.93620000000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>0.94259999999999999</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="O16" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P16" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.4200000000000001E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>0.106</v>
       </c>
       <c r="S16" s="1">
-        <v>2.1507999999999998</v>
+        <v>3.157</v>
       </c>
       <c r="T16" s="1">
-        <v>2.1120000000000001</v>
+        <v>2.8975</v>
       </c>
       <c r="U16" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="V16" s="1">
-        <v>0.84870000000000001</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>0.81920000000000004</v>
+        <v>0.61429999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
@@ -2311,70 +2309,70 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
-        <v>4.5068000000000001</v>
+        <v>4.3030999999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>0.93779999999999997</v>
+        <v>0.94330000000000003</v>
       </c>
       <c r="E17" s="1">
         <v>1.47E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>3.3372000000000002</v>
+        <v>2.1255000000000002</v>
       </c>
       <c r="G17" s="1">
-        <v>0.84760000000000002</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="H17" s="2">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I17" s="1">
-        <v>1.9E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>4.5332999999999997</v>
+        <v>4.3282999999999996</v>
       </c>
       <c r="K17" s="1">
-        <v>4.4896000000000003</v>
+        <v>4.2693000000000003</v>
       </c>
       <c r="L17" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M17" s="1">
-        <v>0.93830000000000002</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>0.93710000000000004</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P17" s="1">
-        <v>1.49E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.46E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>8.8599999999999998E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="S17" s="1">
-        <v>3.4611000000000001</v>
+        <v>2.1507999999999998</v>
       </c>
       <c r="T17" s="1">
-        <v>3.2591999999999999</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="U17" s="1">
-        <v>2.3800000000000002E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="V17" s="1">
-        <v>0.87509999999999999</v>
+        <v>0.84870000000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.81920000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
@@ -2382,141 +2380,141 @@
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.5068000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.3372000000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.5332999999999997</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4.4896000000000003</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3.4611000000000001</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3.2591999999999999</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>4.8475999999999999</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>7.3387000000000002</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>0.97440000000000004</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <v>7.51E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J19" s="1">
         <v>4.9142999999999999</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K19" s="1">
         <v>4.7426000000000004</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L19" s="1">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M19" s="1">
         <v>0.93110000000000004</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N19" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O19" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P19" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q19" s="1">
         <v>1.43E-2</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R19" s="1">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S19" s="1">
         <v>7.3533999999999997</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T19" s="1">
         <v>7.3140999999999998</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U19" s="1">
         <v>1.24E-2</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V19" s="1">
         <v>0.98939999999999995</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W19" s="1">
         <v>0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4.5980999999999996</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.93530000000000002</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3.0295000000000001</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.62849999999999995</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3.1250000000000001E-6</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.6402000000000001</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4.5652999999999997</v>
-      </c>
-      <c r="L19" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.93410000000000004</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1.46E-2</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1.41E-2</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0.106</v>
-      </c>
-      <c r="S19" s="1">
-        <v>3.157</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2.8975</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1.43E-2</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0.61429999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
@@ -4225,46 +4223,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W43" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CNN-ew2"/>
-        <filter val="CNN-ew3"/>
-        <filter val="CNN-ew4"/>
-        <filter val="CNN-obs"/>
-        <filter val="CNN-sg5"/>
-        <filter val="CNN-sg7"/>
-        <filter val="CNN-sg9"/>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
-        <filter val="LSTM-obs"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W43">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W43">
       <sortCondition ref="E1:E43"/>
     </sortState>
   </autoFilter>
@@ -4275,10 +4234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AF7E5-FF80-46CA-B3B5-1B3AA3AB4476}">
-  <dimension ref="E7:P28"/>
+  <dimension ref="E7:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:P23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4914,6 +4873,83 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.4">
+      <c r="L32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N32" s="9">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1.32E-2</v>
+      </c>
+      <c r="N33" s="9">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1.34E-2</v>
+      </c>
+      <c r="N34" s="9">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="N35" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1.43E-2</v>
+      </c>
+      <c r="N37" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.4">
+      <c r="L38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1.44E-2</v>
+      </c>
+      <c r="N38" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="K16:P23" xr:uid="{C96AF7E5-FF80-46CA-B3B5-1B3AA3AB4476}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K17:P23">

--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53338FC4-DE68-4276-AD51-F5A406A7E9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A782F2-F2BE-4A99-823B-F0A8E3282C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32074" yWindow="2631" windowWidth="31397" windowHeight="14332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23974" yWindow="2820" windowWidth="20408" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
@@ -1141,18 +1141,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.23046875" style="1"/>
     <col min="2" max="2" width="12.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.921875" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14.23046875" style="1" hidden="1" customWidth="1"/>
@@ -1536,7 +1537,7 @@
       <c r="D6" s="1">
         <v>0.92190000000000005</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>1.35E-2</v>
       </c>
       <c r="F6" s="1">
@@ -1594,7 +1595,7 @@
         <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>0.74690000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>0.80020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>0.81940000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>0.60109999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>0.61429999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +2460,7 @@
       <c r="D19" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="9">
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="F19" s="1">
@@ -2517,7 +2518,7 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2530,7 +2531,7 @@
       <c r="D20" s="1">
         <v>0.92969999999999997</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="9">
         <v>1.49E-2</v>
       </c>
       <c r="F20" s="1">
@@ -2588,7 +2589,7 @@
         <v>0.98229999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>0.89239999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>0.84030000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>0.75860000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>0.78520000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3027,7 +3028,7 @@
       <c r="D27" s="1">
         <v>0.91920000000000002</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="9">
         <v>1.6E-2</v>
       </c>
       <c r="F27" s="1">
@@ -3085,7 +3086,7 @@
         <v>1.0196000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>0.69240000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>1.4420999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>1.4683999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>1.4612000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>1.4464999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>1.4798</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3666,7 +3667,7 @@
       <c r="D36" s="1">
         <v>0.90580000000000005</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="9">
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="F36" s="1">
@@ -3724,7 +3725,7 @@
         <v>1.5105999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>1.4913000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>1.4743999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -3879,7 +3880,7 @@
       <c r="D39" s="1">
         <v>0.36299999999999999</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="9">
         <v>8.1699999999999995E-2</v>
       </c>
       <c r="F39" s="1">
@@ -3937,7 +3938,7 @@
         <v>1.5853999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>1.4598</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>14.150399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>14.365500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4223,6 +4224,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W43" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="LSTM-3-ew2"/>
+        <filter val="LSTM-3-ew3"/>
+        <filter val="LSTM-3-ew4"/>
+        <filter val="LSTM-3-obs"/>
+        <filter val="LSTM-3-sg5"/>
+        <filter val="LSTM-3-sg7"/>
+        <filter val="LSTM-3-sg9"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W43">
       <sortCondition ref="E1:E43"/>
     </sortState>

--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A782F2-F2BE-4A99-823B-F0A8E3282C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42DDC20-5906-43F5-ADCC-862E29F7FE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23974" yWindow="2820" windowWidth="20408" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13337" yWindow="1946" windowWidth="19389" windowHeight="12403" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t>pos</t>
+  </si>
+  <si>
+    <t>RF-obs</t>
+  </si>
+  <si>
+    <t>RF-sg5</t>
+  </si>
+  <si>
+    <t>RF-sg7</t>
+  </si>
+  <si>
+    <t>RF-sg9</t>
+  </si>
+  <si>
+    <t>RF-ew2</t>
+  </si>
+  <si>
+    <t>RF-ew3</t>
+  </si>
+  <si>
+    <t>RF-ew4</t>
   </si>
 </sst>
 </file>
@@ -1141,28 +1162,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G2" sqref="G2:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.23046875" style="1"/>
     <col min="2" max="2" width="12.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.921875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.23046875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3828125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.23046875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.84375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.61328125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.921875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.23046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3828125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.23046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.61328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.921875" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.69140625" style="1" customWidth="1"/>
@@ -1595,7 +1616,7 @@
         <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1737,7 +1758,7 @@
         <v>0.74690000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1808,7 +1829,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1879,7 +1900,7 @@
         <v>0.80020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1950,7 +1971,7 @@
         <v>0.81940000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2021,7 +2042,7 @@
         <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,7 +2184,7 @@
         <v>0.60109999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2305,7 +2326,7 @@
         <v>0.61429999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2376,7 +2397,7 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2447,7 +2468,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2518,7 +2539,7 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2589,7 +2610,7 @@
         <v>0.98229999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2660,7 +2681,7 @@
         <v>0.89239999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -2731,7 +2752,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2802,7 +2823,7 @@
         <v>0.84030000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2873,7 +2894,7 @@
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>0.75860000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -3015,7 +3036,7 @@
         <v>0.78520000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3086,7 +3107,7 @@
         <v>1.0196000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3157,7 +3178,7 @@
         <v>0.69240000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,7 +3249,7 @@
         <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3299,7 +3320,7 @@
         <v>1.4420999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3370,7 +3391,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3441,7 +3462,7 @@
         <v>1.4683999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3512,7 +3533,7 @@
         <v>1.4612000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -3583,7 +3604,7 @@
         <v>1.4464999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -3654,7 +3675,7 @@
         <v>1.4798</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
@@ -3725,7 +3746,7 @@
         <v>1.5105999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -3796,7 +3817,7 @@
         <v>1.4913000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3867,7 +3888,7 @@
         <v>1.4743999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -3938,7 +3959,7 @@
         <v>1.5853999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -4009,7 +4030,7 @@
         <v>1.4598</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -4080,7 +4101,7 @@
         <v>14.150399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -4151,7 +4172,7 @@
         <v>14.365500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4222,23 +4243,63 @@
         <v>14.5909</v>
       </c>
     </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <v>78.529600000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <v>81.069599999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46">
+        <v>73.826300000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <v>63.684699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48">
+        <v>78.875299999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>75.197400000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <v>77.882900000000006</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W43" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="LSTM-3-ew2"/>
-        <filter val="LSTM-3-ew3"/>
-        <filter val="LSTM-3-ew4"/>
-        <filter val="LSTM-3-obs"/>
-        <filter val="LSTM-3-sg5"/>
-        <filter val="LSTM-3-sg7"/>
-        <filter val="LSTM-3-sg9"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W43">
-      <sortCondition ref="E1:E43"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42DDC20-5906-43F5-ADCC-862E29F7FE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9545B97-C9A0-420B-9D87-290E3C859E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13337" yWindow="1946" windowWidth="19389" windowHeight="12403" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9831" yWindow="720" windowWidth="19389" windowHeight="16671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fc1-colour-FINAL'!$A$1:$W$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fc1-colour-FINAL'!$A$1:$W$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$K$16:$P$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1162,10 +1162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G42"/>
+      <selection activeCell="Q7" sqref="Q7:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1261,7 +1262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>0.65380000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>0.63990000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -3254,70 +3255,70 @@
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
-        <v>5.0000999999999998</v>
+        <v>4.9443000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.9234</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="E30" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>4.7119999999999997</v>
+        <v>5.1402000000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>1.4574</v>
+        <v>1.4823</v>
       </c>
       <c r="H30" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I30" s="1">
-        <v>4.8899999999999999E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J30" s="1">
-        <v>5.0643000000000002</v>
+        <v>4.9485000000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>4.9455999999999998</v>
+        <v>4.9397000000000002</v>
       </c>
       <c r="L30" s="1">
-        <v>1.5E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M30" s="1">
-        <v>0.92510000000000003</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="N30" s="1">
-        <v>0.9214</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="O30" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1.83E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q30" s="1">
-        <v>1.78E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="R30" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="S30" s="1">
-        <v>4.7149999999999999</v>
+        <v>5.1969000000000003</v>
       </c>
       <c r="T30" s="1">
-        <v>4.7077999999999998</v>
+        <v>5.0997000000000003</v>
       </c>
       <c r="U30" s="1">
-        <v>1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="V30" s="1">
-        <v>1.4716</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="W30" s="1">
-        <v>1.4420999999999999</v>
+        <v>1.4683999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
@@ -3325,70 +3326,70 @@
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
-        <v>5.1443000000000003</v>
+        <v>5.0000999999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>0.91890000000000005</v>
+        <v>0.9234</v>
       </c>
       <c r="E31" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>6.3648999999999996</v>
+        <v>4.7119999999999997</v>
       </c>
       <c r="G31" s="1">
-        <v>1.4702</v>
+        <v>1.4574</v>
       </c>
       <c r="H31" s="2">
         <v>1.5625000000000001E-6</v>
       </c>
       <c r="I31" s="1">
-        <v>7.5200000000000003E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="J31" s="1">
-        <v>5.2412999999999998</v>
+        <v>5.0643000000000002</v>
       </c>
       <c r="K31" s="1">
-        <v>5.0580999999999996</v>
+        <v>4.9455999999999998</v>
       </c>
       <c r="L31" s="1">
-        <v>2.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="M31" s="1">
-        <v>0.92159999999999997</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="N31" s="1">
-        <v>0.91590000000000005</v>
+        <v>0.9214</v>
       </c>
       <c r="O31" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P31" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="Q31" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="R31" s="1">
-        <v>4.7000000000000002E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="S31" s="1">
-        <v>6.37</v>
+        <v>4.7149999999999999</v>
       </c>
       <c r="T31" s="1">
-        <v>6.3586</v>
+        <v>4.7077999999999998</v>
       </c>
       <c r="U31" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V31" s="1">
-        <v>1.4779</v>
+        <v>1.4716</v>
       </c>
       <c r="W31" s="1">
-        <v>1.4650000000000001</v>
+        <v>1.4420999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
@@ -3396,70 +3397,70 @@
         <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
-        <v>4.9443000000000001</v>
+        <v>5.1443000000000003</v>
       </c>
       <c r="D32" s="1">
-        <v>0.92510000000000003</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="E32" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>5.1402000000000001</v>
+        <v>6.3648999999999996</v>
       </c>
       <c r="G32" s="1">
-        <v>1.4823</v>
+        <v>1.4702</v>
       </c>
       <c r="H32" s="2">
-        <v>7.8125000000000004E-7</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I32" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>4.9485000000000001</v>
+        <v>5.2412999999999998</v>
       </c>
       <c r="K32" s="1">
-        <v>4.9397000000000002</v>
+        <v>5.0580999999999996</v>
       </c>
       <c r="L32" s="1">
-        <v>1E-4</v>
+        <v>2.3E-3</v>
       </c>
       <c r="M32" s="1">
-        <v>0.92530000000000001</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="N32" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="Q32" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="R32" s="1">
-        <v>4.1300000000000003E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="S32" s="1">
-        <v>5.1969000000000003</v>
+        <v>6.37</v>
       </c>
       <c r="T32" s="1">
-        <v>5.0997000000000003</v>
+        <v>6.3586</v>
       </c>
       <c r="U32" s="1">
-        <v>1.4E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="V32" s="1">
-        <v>1.5014000000000001</v>
+        <v>1.4779</v>
       </c>
       <c r="W32" s="1">
-        <v>1.4683999999999999</v>
+        <v>1.4650000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
@@ -3746,7 +3747,7 @@
         <v>1.5105999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>1.4913000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>1.4743999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>1.5853999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>1.4598</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>14.150399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>14.365500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4245,61 +4246,105 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>78.529600000000002</v>
+        <v>63.684699999999999</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45">
-        <v>81.069599999999994</v>
+        <v>73.826300000000003</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E46">
-        <v>73.826300000000003</v>
+        <v>75.197400000000002</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47">
-        <v>63.684699999999999</v>
+        <v>77.882900000000006</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E48">
-        <v>78.875299999999996</v>
+        <v>78.529600000000002</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49">
-        <v>75.197400000000002</v>
+        <v>78.875299999999996</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E50">
-        <v>77.882900000000006</v>
+        <v>81.069599999999994</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
+        <filter val="RF-ew2"/>
+        <filter val="RF-ew3"/>
+        <filter val="RF-ew4"/>
+        <filter val="RF-obs"/>
+        <filter val="RF-sg5"/>
+        <filter val="RF-sg7"/>
+        <filter val="RF-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W50">
+      <sortCondition ref="E1:E50"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thesis-codes/Colour-summary-final.xlsx
+++ b/Thesis-codes/Colour-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9545B97-C9A0-420B-9D87-290E3C859E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE43878A-8ED5-4BAB-A00A-A9BAA2C08E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9831" yWindow="720" windowWidth="19389" windowHeight="16671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="3283" windowWidth="19389" windowHeight="12403" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1-colour-FINAL" sheetId="1" r:id="rId1"/>
@@ -1162,29 +1162,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:Q36"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.23046875" style="1"/>
     <col min="2" max="2" width="12.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.921875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.23046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3828125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.23046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.84375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.61328125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.921875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.23046875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3828125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.23046875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.61328125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.921875" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.69140625" style="1" customWidth="1"/>
@@ -1262,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>0.65380000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1475,7 +1473,7 @@
         <v>0.63990000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -2256,7 +2254,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>1.5105999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -3818,7 +3816,7 @@
         <v>1.4913000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3889,7 +3887,7 @@
         <v>1.4743999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -3960,7 +3958,7 @@
         <v>1.5853999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -4031,7 +4029,7 @@
         <v>1.4598</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -4102,7 +4100,7 @@
         <v>14.150399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>14.365500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4302,45 +4300,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W50" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
-        <filter val="LSTM-obs"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RF-ew2"/>
-        <filter val="RF-ew3"/>
-        <filter val="RF-ew4"/>
-        <filter val="RF-obs"/>
-        <filter val="RF-sg5"/>
-        <filter val="RF-sg7"/>
-        <filter val="RF-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W50">
       <sortCondition ref="E1:E50"/>
     </sortState>
